--- a/Planilla_informe.xlsx
+++ b/Planilla_informe.xlsx
@@ -13837,16 +13837,10 @@
       <c r="O4" s="267" t="n">
         <v>-714349</v>
       </c>
-      <c r="P4" s="288" t="inlineStr">
-        <is>
-          <t>04/04/2024</t>
-        </is>
-      </c>
-      <c r="Q4" s="268" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="P4" s="288" t="n">
+        <v>45386</v>
+      </c>
+      <c r="Q4" s="268" t="n"/>
       <c r="R4" s="226" t="inlineStr">
         <is>
           <t>PNA-GNA-PFA</t>
@@ -13931,15 +13925,11 @@
           <t>-58.39199</t>
         </is>
       </c>
-      <c r="P5" s="288" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q5" s="268" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P5" s="288" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q5" s="268" t="n">
+        <v>3.335</v>
       </c>
       <c r="R5" s="226" t="n"/>
       <c r="S5" s="227" t="n"/>
@@ -14017,15 +14007,11 @@
           <t>-58.49546</t>
         </is>
       </c>
-      <c r="P6" s="284" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q6" s="286" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P6" s="284" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q6" s="286" t="n">
+        <v>3.335</v>
       </c>
       <c r="R6" s="274" t="n"/>
       <c r="S6" s="275" t="n"/>
@@ -14099,15 +14085,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P7" s="284" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q7" s="286" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
+      <c r="P7" s="284" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q7" s="286" t="n">
+        <v>3.71</v>
       </c>
       <c r="R7" s="274" t="n"/>
       <c r="S7" s="275" t="n"/>
@@ -14185,15 +14167,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P8" s="284" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q8" s="286" t="inlineStr">
-        <is>
-          <t>07:02</t>
-        </is>
+      <c r="P8" s="284" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q8" s="286" t="n">
+        <v>3.293333333333333</v>
       </c>
       <c r="R8" s="274" t="n"/>
       <c r="S8" s="275" t="n"/>
@@ -14271,15 +14249,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P9" s="284" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q9" s="286" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P9" s="284" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q9" s="286" t="n">
+        <v>3.335</v>
       </c>
       <c r="R9" s="274" t="n"/>
       <c r="S9" s="275" t="n"/>
@@ -14357,15 +14331,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P10" s="284" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q10" s="286" t="inlineStr">
-        <is>
-          <t>15:02</t>
-        </is>
+      <c r="P10" s="284" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q10" s="286" t="n">
+        <v>3.626666666666667</v>
       </c>
       <c r="R10" s="274" t="n"/>
       <c r="S10" s="275" t="n"/>
@@ -14443,15 +14413,11 @@
           <t>-71.4349</t>
         </is>
       </c>
-      <c r="P11" s="284" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q11" s="287" t="inlineStr">
-        <is>
-          <t>11:12</t>
-        </is>
+      <c r="P11" s="284" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q11" s="287" t="n">
+        <v>3.466944444444445</v>
       </c>
       <c r="R11" s="274" t="n"/>
       <c r="S11" s="275" t="n"/>
@@ -14529,15 +14495,11 @@
           <t>-65.30505</t>
         </is>
       </c>
-      <c r="P12" s="263" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="Q12" s="285" t="inlineStr">
-        <is>
-          <t>16:32</t>
-        </is>
+      <c r="P12" s="263" t="n">
+        <v>45567</v>
+      </c>
+      <c r="Q12" s="285" t="n">
+        <v>3.689166666666667</v>
       </c>
       <c r="R12" s="274" t="n"/>
       <c r="S12" s="275" t="n"/>
@@ -14611,15 +14573,11 @@
           <t>-58.50854</t>
         </is>
       </c>
-      <c r="P13" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q13" s="286" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
+      <c r="P13" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q13" s="286" t="n">
+        <v>3.439166666666666</v>
       </c>
       <c r="R13" s="274" t="n"/>
       <c r="S13" s="275" t="n"/>
@@ -14693,15 +14651,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P14" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q14" s="286" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
+      <c r="P14" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q14" s="286" t="n">
+        <v>3.71</v>
       </c>
       <c r="R14" s="274" t="n"/>
       <c r="S14" s="275" t="n"/>
@@ -14775,15 +14729,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P15" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q15" s="286" t="inlineStr">
-        <is>
-          <t>17:32</t>
-        </is>
+      <c r="P15" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q15" s="286" t="n">
+        <v>3.730833333333333</v>
       </c>
       <c r="R15" s="274" t="n"/>
       <c r="S15" s="275" t="n"/>
@@ -14857,16 +14807,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P16" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q16" s="286" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="P16" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q16" s="286" t="n"/>
       <c r="R16" s="274" t="n"/>
       <c r="S16" s="275" t="n"/>
       <c r="Y16" s="305" t="n"/>
@@ -14939,15 +14883,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P17" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q17" s="286" t="inlineStr">
-        <is>
-          <t>18:32</t>
-        </is>
+      <c r="P17" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q17" s="286" t="n">
+        <v>3.7725</v>
       </c>
       <c r="R17" s="274" t="n"/>
       <c r="S17" s="275" t="n"/>
@@ -15025,15 +14965,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q18" s="286" t="inlineStr">
-        <is>
-          <t>07:02</t>
-        </is>
+      <c r="P18" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q18" s="286" t="n">
+        <v>3.293333333333333</v>
       </c>
       <c r="R18" s="274" t="n"/>
       <c r="S18" s="275" t="n"/>
@@ -15111,15 +15047,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P19" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q19" s="286" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P19" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q19" s="286" t="n">
+        <v>3.335</v>
       </c>
       <c r="R19" s="274" t="n"/>
       <c r="S19" s="275" t="n"/>
@@ -15197,15 +15129,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P20" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q20" s="286" t="inlineStr">
-        <is>
-          <t>15:02</t>
-        </is>
+      <c r="P20" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q20" s="286" t="n">
+        <v>3.626666666666667</v>
       </c>
       <c r="R20" s="274" t="n"/>
       <c r="S20" s="275" t="n"/>
@@ -15283,15 +15211,11 @@
           <t>-71.4349</t>
         </is>
       </c>
-      <c r="P21" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q21" s="287" t="inlineStr">
-        <is>
-          <t>11:12</t>
-        </is>
+      <c r="P21" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q21" s="287" t="n">
+        <v>3.466944444444445</v>
       </c>
       <c r="R21" s="274" t="n"/>
       <c r="S21" s="275" t="n"/>
@@ -15369,15 +15293,11 @@
           <t>-65.30505</t>
         </is>
       </c>
-      <c r="P22" s="263" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="Q22" s="285" t="inlineStr">
-        <is>
-          <t>16:32</t>
-        </is>
+      <c r="P22" s="263" t="n">
+        <v>45568</v>
+      </c>
+      <c r="Q22" s="285" t="n">
+        <v>3.689166666666667</v>
       </c>
       <c r="R22" s="274" t="n"/>
       <c r="S22" s="275" t="n"/>
@@ -15451,15 +15371,11 @@
           <t>-58.50854</t>
         </is>
       </c>
-      <c r="P23" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q23" s="286" t="inlineStr">
-        <is>
-          <t>10:52</t>
-        </is>
+      <c r="P23" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q23" s="286" t="n">
+        <v>3.453055555555555</v>
       </c>
       <c r="R23" s="274" t="n"/>
       <c r="S23" s="275" t="n"/>
@@ -15533,15 +15449,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P24" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q24" s="286" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
+      <c r="P24" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q24" s="286" t="n">
+        <v>3.71</v>
       </c>
       <c r="R24" s="274" t="n"/>
       <c r="S24" s="275" t="n"/>
@@ -15615,15 +15527,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P25" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q25" s="286" t="inlineStr">
-        <is>
-          <t>17:37</t>
-        </is>
+      <c r="P25" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q25" s="286" t="n">
+        <v>3.734305555555555</v>
       </c>
       <c r="R25" s="274" t="n"/>
       <c r="S25" s="275" t="n"/>
@@ -15697,15 +15605,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P26" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q26" s="286" t="inlineStr">
-        <is>
-          <t>18:42</t>
-        </is>
+      <c r="P26" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q26" s="286" t="n">
+        <v>3.779444444444445</v>
       </c>
       <c r="R26" s="274" t="n"/>
       <c r="S26" s="275" t="n"/>
@@ -15779,15 +15683,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P27" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q27" s="286" t="inlineStr">
-        <is>
-          <t>19:47</t>
-        </is>
+      <c r="P27" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q27" s="286" t="n">
+        <v>3.824583333333333</v>
       </c>
       <c r="R27" s="274" t="n"/>
       <c r="S27" s="275" t="n"/>
@@ -15865,15 +15765,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P28" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q28" s="286" t="inlineStr">
-        <is>
-          <t>07:02</t>
-        </is>
+      <c r="P28" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q28" s="286" t="n">
+        <v>3.293333333333333</v>
       </c>
       <c r="R28" s="274" t="n"/>
       <c r="S28" s="275" t="n"/>
@@ -15951,15 +15847,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P29" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q29" s="286" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P29" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q29" s="286" t="n">
+        <v>3.335</v>
       </c>
       <c r="R29" s="274" t="n"/>
       <c r="S29" s="275" t="n"/>
@@ -16037,15 +15929,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P30" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q30" s="286" t="inlineStr">
-        <is>
-          <t>15:02</t>
-        </is>
+      <c r="P30" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q30" s="286" t="n">
+        <v>3.626666666666667</v>
       </c>
       <c r="R30" s="274" t="n"/>
       <c r="S30" s="275" t="n"/>
@@ -16123,15 +16011,11 @@
           <t>-71.4349</t>
         </is>
       </c>
-      <c r="P31" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q31" s="287" t="inlineStr">
-        <is>
-          <t>11:02</t>
-        </is>
+      <c r="P31" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q31" s="287" t="n">
+        <v>3.46</v>
       </c>
       <c r="R31" s="274" t="n"/>
       <c r="S31" s="275" t="n"/>
@@ -16209,15 +16093,11 @@
           <t>-65.30505</t>
         </is>
       </c>
-      <c r="P32" s="263" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="Q32" s="285" t="inlineStr">
-        <is>
-          <t>16:22</t>
-        </is>
+      <c r="P32" s="263" t="n">
+        <v>45569</v>
+      </c>
+      <c r="Q32" s="285" t="n">
+        <v>3.682222222222222</v>
       </c>
       <c r="R32" s="274" t="n"/>
       <c r="S32" s="275" t="n"/>
@@ -16291,15 +16171,11 @@
           <t>-58.50854</t>
         </is>
       </c>
-      <c r="P33" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q33" s="285" t="inlineStr">
-        <is>
-          <t>10:52</t>
-        </is>
+      <c r="P33" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q33" s="285" t="n">
+        <v>3.453055555555555</v>
       </c>
       <c r="R33" s="274" t="n"/>
       <c r="S33" s="275" t="n"/>
@@ -16373,15 +16249,11 @@
           <t>-58.50854</t>
         </is>
       </c>
-      <c r="P34" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q34" s="286" t="inlineStr">
-        <is>
-          <t>10:52</t>
-        </is>
+      <c r="P34" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q34" s="286" t="n">
+        <v>3.453055555555555</v>
       </c>
       <c r="R34" s="274" t="n"/>
       <c r="S34" s="275" t="n"/>
@@ -16455,15 +16327,11 @@
           <t>-60.673293</t>
         </is>
       </c>
-      <c r="P35" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q35" s="286" t="inlineStr">
-        <is>
-          <t>17:37</t>
-        </is>
+      <c r="P35" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q35" s="286" t="n">
+        <v>3.734305555555555</v>
       </c>
       <c r="R35" s="274" t="n"/>
       <c r="S35" s="275" t="n"/>
@@ -16537,15 +16405,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P36" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q36" s="286" t="inlineStr">
-        <is>
-          <t>18:42</t>
-        </is>
+      <c r="P36" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q36" s="286" t="n">
+        <v>3.779444444444445</v>
       </c>
       <c r="R36" s="274" t="n"/>
       <c r="S36" s="275" t="n"/>
@@ -16619,15 +16483,11 @@
           <t>-60.673293</t>
         </is>
       </c>
-      <c r="P37" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q37" s="286" t="inlineStr">
-        <is>
-          <t>19:47</t>
-        </is>
+      <c r="P37" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q37" s="286" t="n">
+        <v>3.824583333333333</v>
       </c>
       <c r="R37" s="274" t="n"/>
       <c r="S37" s="275" t="n"/>
@@ -16705,15 +16565,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P38" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q38" s="286" t="inlineStr">
-        <is>
-          <t>07:02</t>
-        </is>
+      <c r="P38" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q38" s="286" t="n">
+        <v>3.293333333333333</v>
       </c>
       <c r="R38" s="274" t="n"/>
       <c r="S38" s="275" t="n"/>
@@ -16791,15 +16647,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P39" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q39" s="286" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P39" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q39" s="286" t="n">
+        <v>3.335</v>
       </c>
       <c r="R39" s="274" t="n"/>
       <c r="S39" s="275" t="n"/>
@@ -16877,15 +16729,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P40" s="263" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q40" s="286" t="inlineStr">
-        <is>
-          <t>15:02</t>
-        </is>
+      <c r="P40" s="263" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q40" s="286" t="n">
+        <v>3.626666666666667</v>
       </c>
       <c r="R40" s="274" t="n"/>
       <c r="S40" s="275" t="n"/>
@@ -16963,15 +16811,11 @@
           <t>-71.4349</t>
         </is>
       </c>
-      <c r="P41" s="258" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="Q41" s="256" t="inlineStr">
-        <is>
-          <t>11:02</t>
-        </is>
+      <c r="P41" s="258" t="n">
+        <v>45570</v>
+      </c>
+      <c r="Q41" s="256" t="n">
+        <v>3.46</v>
       </c>
       <c r="R41" s="226" t="n"/>
       <c r="S41" s="227" t="n"/>
@@ -17045,15 +16889,11 @@
           <t>-58.50854</t>
         </is>
       </c>
-      <c r="P42" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q42" s="255" t="inlineStr">
-        <is>
-          <t>10:42</t>
-        </is>
+      <c r="P42" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q42" s="255" t="n">
+        <v>3.446111111111111</v>
       </c>
       <c r="R42" s="226" t="n"/>
       <c r="S42" s="227" t="n"/>
@@ -17127,15 +16967,11 @@
           <t>-58.50854</t>
         </is>
       </c>
-      <c r="P43" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q43" s="255" t="inlineStr">
-        <is>
-          <t>15:47</t>
-        </is>
+      <c r="P43" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q43" s="255" t="n">
+        <v>3.657916666666667</v>
       </c>
       <c r="R43" s="274" t="n"/>
       <c r="S43" s="107" t="n"/>
@@ -17209,15 +17045,11 @@
           <t>-60.673293</t>
         </is>
       </c>
-      <c r="P44" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q44" s="255" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
+      <c r="P44" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q44" s="255" t="n">
+        <v>3.71</v>
       </c>
       <c r="R44" s="274" t="n"/>
       <c r="S44" s="107" t="n"/>
@@ -17291,15 +17123,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P45" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q45" s="256" t="inlineStr">
-        <is>
-          <t>19:02</t>
-        </is>
+      <c r="P45" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q45" s="256" t="n">
+        <v>3.793333333333333</v>
       </c>
       <c r="R45" s="217" t="n"/>
       <c r="S45" s="218" t="n"/>
@@ -17377,15 +17205,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P46" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q46" s="256" t="inlineStr">
-        <is>
-          <t>07:02</t>
-        </is>
+      <c r="P46" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q46" s="256" t="n">
+        <v>3.293333333333333</v>
       </c>
       <c r="R46" s="217" t="n"/>
       <c r="S46" s="218" t="n"/>
@@ -17463,15 +17287,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P47" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q47" s="256" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P47" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q47" s="256" t="n">
+        <v>3.335</v>
       </c>
       <c r="R47" s="217" t="n"/>
       <c r="S47" s="218" t="n"/>
@@ -17549,15 +17369,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P48" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q48" s="256" t="inlineStr">
-        <is>
-          <t>15:02</t>
-        </is>
+      <c r="P48" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q48" s="256" t="n">
+        <v>3.626666666666667</v>
       </c>
       <c r="R48" s="217" t="n"/>
       <c r="S48" s="218" t="n"/>
@@ -17635,15 +17451,11 @@
           <t>-71.4349</t>
         </is>
       </c>
-      <c r="P49" s="258" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="Q49" s="255" t="inlineStr">
-        <is>
-          <t>11:02</t>
-        </is>
+      <c r="P49" s="258" t="n">
+        <v>45571</v>
+      </c>
+      <c r="Q49" s="255" t="n">
+        <v>3.46</v>
       </c>
       <c r="R49" s="274" t="n"/>
       <c r="S49" s="107" t="n"/>
@@ -17717,15 +17529,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P50" s="258" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q50" s="255" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
+      <c r="P50" s="258" t="n">
+        <v>45572</v>
+      </c>
+      <c r="Q50" s="255" t="n">
+        <v>3.71</v>
       </c>
       <c r="R50" s="274" t="n"/>
       <c r="S50" s="107" t="n"/>
@@ -17799,15 +17607,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P51" s="258" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q51" s="256" t="inlineStr">
-        <is>
-          <t>19:02</t>
-        </is>
+      <c r="P51" s="258" t="n">
+        <v>45572</v>
+      </c>
+      <c r="Q51" s="256" t="n">
+        <v>3.793333333333333</v>
       </c>
       <c r="R51" s="217" t="n"/>
       <c r="S51" s="218" t="n"/>
@@ -17885,15 +17689,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P52" s="258" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q52" s="256" t="inlineStr">
-        <is>
-          <t>07:02</t>
-        </is>
+      <c r="P52" s="258" t="n">
+        <v>45572</v>
+      </c>
+      <c r="Q52" s="256" t="n">
+        <v>3.293333333333333</v>
       </c>
       <c r="R52" s="217" t="n"/>
       <c r="S52" s="218" t="n"/>
@@ -17971,15 +17771,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P53" s="258" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q53" s="256" t="inlineStr">
-        <is>
-          <t>08:02</t>
-        </is>
+      <c r="P53" s="258" t="n">
+        <v>45572</v>
+      </c>
+      <c r="Q53" s="256" t="n">
+        <v>3.335</v>
       </c>
       <c r="R53" s="217" t="n"/>
       <c r="S53" s="218" t="n"/>
@@ -18057,15 +17853,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P54" s="258" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q54" s="256" t="inlineStr">
-        <is>
-          <t>15:02</t>
-        </is>
+      <c r="P54" s="258" t="n">
+        <v>45572</v>
+      </c>
+      <c r="Q54" s="256" t="n">
+        <v>3.626666666666667</v>
       </c>
       <c r="R54" s="217" t="n"/>
       <c r="S54" s="218" t="n"/>
@@ -18143,15 +17935,11 @@
           <t>-71.4349</t>
         </is>
       </c>
-      <c r="P55" s="258" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q55" s="256" t="inlineStr">
-        <is>
-          <t>11:02</t>
-        </is>
+      <c r="P55" s="258" t="n">
+        <v>45572</v>
+      </c>
+      <c r="Q55" s="256" t="n">
+        <v>3.46</v>
       </c>
       <c r="R55" s="217" t="n"/>
       <c r="S55" s="218" t="n"/>

--- a/Planilla_informe.xlsx
+++ b/Planilla_informe.xlsx
@@ -15173,17 +15173,17 @@
       </c>
       <c r="C19" s="277" t="inlineStr">
         <is>
-          <t>GAR 178010/22</t>
+          <t>LEG CONTRAVENCIONAL 1762</t>
         </is>
       </c>
       <c r="D19" s="272" t="inlineStr">
         <is>
-          <t>GAR 178010/22-(1)</t>
+          <t>LEG CONTRAVENCIONAL 1762-(1)</t>
         </is>
       </c>
       <c r="E19" s="272" t="inlineStr">
         <is>
-          <t>USU</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="F19" s="272" t="inlineStr">
@@ -15198,12 +15198,12 @@
       </c>
       <c r="H19" s="272" t="inlineStr">
         <is>
-          <t>TIERRA DEL FUEGO ANTARTIDA E ISLAS DEL ATLANTICO SUR</t>
+          <t>CHUBUT</t>
         </is>
       </c>
       <c r="I19" s="307" t="inlineStr">
         <is>
-          <t>USHUAIA</t>
+          <t>ESCALANTE</t>
         </is>
       </c>
       <c r="J19" s="272" t="inlineStr">
@@ -15227,19 +15227,19 @@
         </is>
       </c>
       <c r="N19" s="280" t="n">
-        <v>-54.8422</v>
+        <v>-45.789465</v>
       </c>
       <c r="O19" s="282" t="n">
-        <v>-68.309703</v>
+        <v>-67.467674</v>
       </c>
       <c r="P19" s="263" t="inlineStr">
         <is>
-          <t>19/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="Q19" s="286" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="R19" s="274" t="inlineStr">
@@ -15266,37 +15266,37 @@
       </c>
       <c r="C20" s="277" t="inlineStr">
         <is>
-          <t>INS 49871/22</t>
+          <t>27091/2022</t>
         </is>
       </c>
       <c r="D20" s="272" t="inlineStr">
         <is>
-          <t>INS 49871/22-(1)</t>
+          <t>27091/2022-(1)</t>
         </is>
       </c>
       <c r="E20" s="272" t="inlineStr">
         <is>
-          <t>USU</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="F20" s="272" t="inlineStr">
         <is>
-          <t>CONTROL PREVENTIVO - SECTOR DE SEGURIDAD RESTRINGIDA AEROPORTUARIA</t>
+          <t>ORDEN DE ALLANAMIENTO</t>
         </is>
       </c>
       <c r="G20" s="272" t="inlineStr">
         <is>
-          <t>ORDEN POLICIAL</t>
+          <t>ORDEN JUDICIAL</t>
         </is>
       </c>
       <c r="H20" s="272" t="inlineStr">
         <is>
-          <t>TIERRA DEL FUEGO ANTARTIDA E ISLAS DEL ATLANTICO SUR</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="I20" s="307" t="inlineStr">
         <is>
-          <t>USHUAIA</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="J20" s="272" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="K20" s="272" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>VILLEGAS 149, EL PALOMAR - MORON</t>
         </is>
       </c>
       <c r="L20" s="265" t="inlineStr">
@@ -15320,19 +15320,19 @@
         </is>
       </c>
       <c r="N20" s="278" t="n">
-        <v>-54.8422</v>
+        <v>-34.623564</v>
       </c>
       <c r="O20" s="282" t="n">
-        <v>-68.309703</v>
+        <v>-58.577936</v>
       </c>
       <c r="P20" s="263" t="inlineStr">
         <is>
-          <t>19/10/2024</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="Q20" s="286" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="R20" s="274" t="inlineStr">
@@ -15359,37 +15359,37 @@
       </c>
       <c r="C21" s="277" t="inlineStr">
         <is>
-          <t>LEG CONTRAVENCIONAL 1762</t>
+          <t>27091/2022</t>
         </is>
       </c>
       <c r="D21" s="269" t="inlineStr">
         <is>
-          <t>LEG CONTRAVENCIONAL 1762-(1)</t>
+          <t>27091/2022-(2)</t>
         </is>
       </c>
       <c r="E21" s="269" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="F21" s="269" t="inlineStr">
         <is>
-          <t>CONTROL PREVENTIVO - SECTOR DE SEGURIDAD RESTRINGIDA AEROPORTUARIA</t>
+          <t>ORDEN DE ALLANAMIENTO</t>
         </is>
       </c>
       <c r="G21" s="269" t="inlineStr">
         <is>
-          <t>ORDEN POLICIAL</t>
+          <t>ORDEN JUDICIAL</t>
         </is>
       </c>
       <c r="H21" s="272" t="inlineStr">
         <is>
-          <t>CHUBUT</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="I21" s="307" t="inlineStr">
         <is>
-          <t>ESCALANTE</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="J21" s="272" t="inlineStr">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="K21" s="272" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BELGRANO 6564, JOSE LEON SUAREZ - SAN MARTIN</t>
         </is>
       </c>
       <c r="L21" s="265" t="inlineStr">
@@ -15413,19 +15413,19 @@
         </is>
       </c>
       <c r="N21" s="279" t="n">
-        <v>-45.789465</v>
+        <v>-34.541669</v>
       </c>
       <c r="O21" s="279" t="n">
-        <v>-67.467674</v>
+        <v>-58.574293</v>
       </c>
       <c r="P21" s="263" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="Q21" s="287" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="R21" s="274" t="inlineStr">
@@ -15445,188 +15445,46 @@
       <c r="Z21" s="305" t="n"/>
     </row>
     <row r="22" ht="20.25" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B22" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C22" s="277" t="inlineStr">
-        <is>
-          <t>27091/2022</t>
-        </is>
-      </c>
-      <c r="D22" s="272" t="inlineStr">
-        <is>
-          <t>27091/2022-(1)</t>
-        </is>
-      </c>
-      <c r="E22" s="272" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="F22" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G22" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H22" s="272" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I22" s="307" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="J22" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K22" s="276" t="inlineStr">
-        <is>
-          <t>VILLEGAS 149, EL PALOMAR - MORON</t>
-        </is>
-      </c>
-      <c r="L22" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N22" s="264" t="n">
-        <v>-34.623564</v>
-      </c>
-      <c r="O22" s="262" t="n">
-        <v>-58.577936</v>
-      </c>
-      <c r="P22" s="263" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="Q22" s="285" t="inlineStr">
-        <is>
-          <t>07:57</t>
-        </is>
-      </c>
-      <c r="R22" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S22" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v/>
-      </c>
+      <c r="B22" s="277" t="n"/>
+      <c r="C22" s="277" t="n"/>
+      <c r="D22" s="272" t="n"/>
+      <c r="E22" s="272" t="n"/>
+      <c r="F22" s="269" t="n"/>
+      <c r="G22" s="269" t="n"/>
+      <c r="H22" s="272" t="n"/>
+      <c r="I22" s="307" t="n"/>
+      <c r="J22" s="272" t="n"/>
+      <c r="K22" s="276" t="n"/>
+      <c r="L22" s="265" t="n"/>
+      <c r="M22" s="265" t="n"/>
+      <c r="N22" s="264" t="n"/>
+      <c r="O22" s="262" t="n"/>
+      <c r="P22" s="263" t="n"/>
+      <c r="Q22" s="285" t="n"/>
+      <c r="R22" s="274" t="n"/>
+      <c r="S22" s="275" t="n"/>
       <c r="Y22" s="305" t="n"/>
       <c r="Z22" s="305" t="n"/>
     </row>
     <row r="23" ht="21" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B23" s="270" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C23" s="277" t="inlineStr">
-        <is>
-          <t>27091/2022</t>
-        </is>
-      </c>
-      <c r="D23" s="271" t="inlineStr">
-        <is>
-          <t>27091/2022-(2)</t>
-        </is>
-      </c>
-      <c r="E23" s="272" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="F23" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G23" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H23" s="272" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I23" s="307" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="J23" s="269" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K23" s="271" t="inlineStr">
-        <is>
-          <t>BELGRANO 6564, JOSE LEON SUAREZ - SAN MARTIN</t>
-        </is>
-      </c>
-      <c r="L23" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N23" s="281" t="n">
-        <v>-34.541669</v>
-      </c>
-      <c r="O23" s="283" t="n">
-        <v>-58.574293</v>
-      </c>
-      <c r="P23" s="263" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="Q23" s="286" t="inlineStr">
-        <is>
-          <t>07:40</t>
-        </is>
-      </c>
-      <c r="R23" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S23" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v/>
-      </c>
+      <c r="B23" s="270" t="n"/>
+      <c r="C23" s="277" t="n"/>
+      <c r="D23" s="271" t="n"/>
+      <c r="E23" s="272" t="n"/>
+      <c r="F23" s="272" t="n"/>
+      <c r="G23" s="272" t="n"/>
+      <c r="H23" s="272" t="n"/>
+      <c r="I23" s="307" t="n"/>
+      <c r="J23" s="269" t="n"/>
+      <c r="K23" s="271" t="n"/>
+      <c r="L23" s="265" t="n"/>
+      <c r="M23" s="265" t="n"/>
+      <c r="N23" s="281" t="n"/>
+      <c r="O23" s="283" t="n"/>
+      <c r="P23" s="263" t="n"/>
+      <c r="Q23" s="286" t="n"/>
+      <c r="R23" s="274" t="n"/>
+      <c r="S23" s="275" t="n"/>
       <c r="Y23" s="305" t="n"/>
       <c r="Z23" s="305" t="n"/>
     </row>

--- a/Planilla_informe.xlsx
+++ b/Planilla_informe.xlsx
@@ -13778,22 +13778,22 @@
       </c>
       <c r="C4" s="259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6619/2024</t>
+          <t>FCB-14275/2024</t>
         </is>
       </c>
       <c r="D4" s="260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6619/2024-(1)</t>
+          <t>FCB-14275/2024-(1)</t>
         </is>
       </c>
       <c r="E4" s="260" t="inlineStr">
         <is>
-          <t>USU</t>
+          <t>UC2</t>
         </is>
       </c>
       <c r="F4" s="260" t="inlineStr">
         <is>
-          <t>OTRO MANDATO JUDICIAL</t>
+          <t>ORDEN DE ALLANAMIENTO</t>
         </is>
       </c>
       <c r="G4" s="260" t="inlineStr">
@@ -13803,12 +13803,12 @@
       </c>
       <c r="H4" s="270" t="inlineStr">
         <is>
-          <t>TIERRA DEL FUEGO ANTARTIDA E ISLAS DEL ATLANTICO SUR</t>
+          <t>CORDOBA</t>
         </is>
       </c>
       <c r="I4" s="304" t="inlineStr">
         <is>
-          <t>USHUAIA</t>
+          <t>UC2</t>
         </is>
       </c>
       <c r="J4" s="272" t="inlineStr">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="K4" s="272" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ALVEAR 158, CORDOBA - nan</t>
         </is>
       </c>
       <c r="L4" s="265" t="inlineStr">
@@ -13832,14 +13832,14 @@
         </is>
       </c>
       <c r="N4" s="266" t="n">
-        <v>-54.8422</v>
+        <v>-31.415165</v>
       </c>
       <c r="O4" s="267" t="n">
-        <v>-68.309703</v>
+        <v>-64.18058600000001</v>
       </c>
       <c r="P4" s="288" t="inlineStr">
         <is>
-          <t>05/10/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="Q4" s="268" t="inlineStr">
@@ -13871,22 +13871,22 @@
       </c>
       <c r="C5" s="259" t="inlineStr">
         <is>
-          <t>FCB 14275/2024</t>
+          <t>FCB-14275/2024</t>
         </is>
       </c>
       <c r="D5" s="260" t="inlineStr">
         <is>
-          <t>FCB 14275/2024-(1)</t>
+          <t>FCB-14275/2024-(2)</t>
         </is>
       </c>
       <c r="E5" s="260" t="inlineStr">
         <is>
-          <t>UC2</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="F5" s="260" t="inlineStr">
         <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
+          <t>OTRO MANDATO JUDICIAL</t>
         </is>
       </c>
       <c r="G5" s="260" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="I5" s="306" t="inlineStr">
         <is>
-          <t>UC2</t>
+          <t>CAPITAL</t>
         </is>
       </c>
       <c r="J5" s="272" t="inlineStr">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="K5" s="272" t="inlineStr">
         <is>
-          <t>ALVEAR 158, CORDOBA - nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L5" s="265" t="inlineStr">
@@ -13925,10 +13925,10 @@
         </is>
       </c>
       <c r="N5" s="266" t="n">
-        <v>-31.415165</v>
+        <v>-31.314897</v>
       </c>
       <c r="O5" s="267" t="n">
-        <v>-64.18058600000001</v>
+        <v>-64.213159</v>
       </c>
       <c r="P5" s="288" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="Q5" s="268" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="R5" s="226" t="inlineStr">
@@ -13964,37 +13964,37 @@
       </c>
       <c r="C6" s="277" t="inlineStr">
         <is>
-          <t>FCB14275/2024</t>
+          <t>PS-0565-AER/24</t>
         </is>
       </c>
       <c r="D6" s="271" t="inlineStr">
         <is>
-          <t>FCB14275/2024-(1)</t>
+          <t>PS-0565-AER/24-(2)</t>
         </is>
       </c>
       <c r="E6" s="272" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>AER</t>
         </is>
       </c>
       <c r="F6" s="272" t="inlineStr">
         <is>
-          <t>OTRO MANDATO JUDICIAL</t>
+          <t>DENUNCIA POLICIAL</t>
         </is>
       </c>
       <c r="G6" s="272" t="inlineStr">
         <is>
-          <t>ORDEN JUDICIAL</t>
+          <t>ORDEN POLICIAL</t>
         </is>
       </c>
       <c r="H6" s="272" t="inlineStr">
         <is>
-          <t>CORDOBA</t>
+          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
         </is>
       </c>
       <c r="I6" s="307" t="inlineStr">
         <is>
-          <t>CAPITAL</t>
+          <t>COMUNA 14</t>
         </is>
       </c>
       <c r="J6" s="269" t="inlineStr">
@@ -14004,7 +14004,7 @@
       </c>
       <c r="K6" s="271" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nan nan, nan - nan</t>
         </is>
       </c>
       <c r="L6" s="265" t="inlineStr">
@@ -14018,10 +14018,10 @@
         </is>
       </c>
       <c r="N6" s="281" t="n">
-        <v>-31.314897</v>
+        <v>-34.55602</v>
       </c>
       <c r="O6" s="283" t="n">
-        <v>-64.213159</v>
+        <v>-58.41298</v>
       </c>
       <c r="P6" s="284" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="Q6" s="286" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="R6" s="274" t="inlineStr">
@@ -14057,12 +14057,12 @@
       </c>
       <c r="C7" s="277" t="inlineStr">
         <is>
-          <t>PS-0565-AER/24</t>
+          <t>PS-0575-AER/24</t>
         </is>
       </c>
       <c r="D7" s="272" t="inlineStr">
         <is>
-          <t>PS-0565-AER/24-(2)</t>
+          <t>PS-0575-AER/24-(2)</t>
         </is>
       </c>
       <c r="E7" s="272" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="K7" s="272" t="inlineStr">
         <is>
-          <t>nan nan, nan - nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L7" s="265" t="inlineStr">
@@ -14111,19 +14111,19 @@
         </is>
       </c>
       <c r="N7" s="280" t="n">
-        <v>-34.55602</v>
+        <v>-34.5580305</v>
       </c>
       <c r="O7" s="282" t="n">
-        <v>-58.41298</v>
+        <v>-58.4191975</v>
       </c>
       <c r="P7" s="284" t="inlineStr">
         <is>
-          <t>07/10/2024</t>
+          <t>13/10/2024</t>
         </is>
       </c>
       <c r="Q7" s="286" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="R7" s="274" t="inlineStr">
@@ -14150,17 +14150,17 @@
       </c>
       <c r="C8" s="277" t="inlineStr">
         <is>
-          <t>FGR 5144/2024</t>
+          <t>ACTUACIONES JUDICIALES-0000-UC1/24</t>
         </is>
       </c>
       <c r="D8" s="272" t="inlineStr">
         <is>
-          <t>FGR 5144/2024-(1)</t>
+          <t>ACTUACIONES JUDICIALES-0000-UC1/24-(1)</t>
         </is>
       </c>
       <c r="E8" s="272" t="inlineStr">
         <is>
-          <t>UC5</t>
+          <t>UC1</t>
         </is>
       </c>
       <c r="F8" s="272" t="inlineStr">
@@ -14175,12 +14175,12 @@
       </c>
       <c r="H8" s="272" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
         </is>
       </c>
       <c r="I8" s="307" t="inlineStr">
         <is>
-          <t>UC5</t>
+          <t>UC1</t>
         </is>
       </c>
       <c r="J8" s="272" t="inlineStr">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="K8" s="272" t="inlineStr">
         <is>
-          <t>nan 62, SAN CARLOS DE BARILOCHE - nan</t>
+          <t>GENERAL CESAR DIAZ 4342, nan - nan</t>
         </is>
       </c>
       <c r="L8" s="265" t="inlineStr">
@@ -14204,19 +14204,19 @@
         </is>
       </c>
       <c r="N8" s="280" t="n">
-        <v>-41.15278</v>
+        <v>-34.6242611</v>
       </c>
       <c r="O8" s="282" t="n">
-        <v>-71.28045</v>
+        <v>-58.4932984</v>
       </c>
       <c r="P8" s="284" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>18/10/2024</t>
         </is>
       </c>
       <c r="Q8" s="286" t="inlineStr">
         <is>
-          <t>07:25</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="R8" s="274" t="inlineStr">
@@ -14243,37 +14243,37 @@
       </c>
       <c r="C9" s="277" t="inlineStr">
         <is>
-          <t>FGR 5144/2024</t>
+          <t>FCB-14653/24 COIRON-222549/24</t>
         </is>
       </c>
       <c r="D9" s="272" t="inlineStr">
         <is>
-          <t>FGR 5144/2024-(2)</t>
+          <t>FCB-14653/24 COIRON-222549/24-(1)</t>
         </is>
       </c>
       <c r="E9" s="272" t="inlineStr">
         <is>
-          <t>UC5</t>
+          <t>UC2</t>
         </is>
       </c>
       <c r="F9" s="272" t="inlineStr">
         <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
+          <t>DENUNCIA POLICIAL</t>
         </is>
       </c>
       <c r="G9" s="272" t="inlineStr">
         <is>
-          <t>ORDEN JUDICIAL</t>
+          <t>ORDEN POLICIAL</t>
         </is>
       </c>
       <c r="H9" s="272" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>CORDOBA</t>
         </is>
       </c>
       <c r="I9" s="307" t="inlineStr">
         <is>
-          <t>UC5</t>
+          <t>UC2</t>
         </is>
       </c>
       <c r="J9" s="272" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="K9" s="272" t="inlineStr">
         <is>
-          <t>ÑANCU LAHUEN 313, SAN CARLOS DE BARILOCHE - nan</t>
+          <t>EDUARDO MARQUINA S/D, CORDOBA - nan</t>
         </is>
       </c>
       <c r="L9" s="265" t="inlineStr">
@@ -14297,19 +14297,19 @@
         </is>
       </c>
       <c r="N9" s="280" t="n">
-        <v>-41.16245</v>
+        <v>-31.381514</v>
       </c>
       <c r="O9" s="282" t="n">
-        <v>-71.32853</v>
+        <v>-64.192876</v>
       </c>
       <c r="P9" s="284" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>14/10/2024</t>
         </is>
       </c>
       <c r="Q9" s="286" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="R9" s="274" t="inlineStr">
@@ -14336,37 +14336,37 @@
       </c>
       <c r="C10" s="277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FCR 10153/2023</t>
+          <t>179/2023 (8178)</t>
         </is>
       </c>
       <c r="D10" s="272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FCR 10153/2023-(1)</t>
+          <t>179/2023 (8178)-(1)</t>
         </is>
       </c>
       <c r="E10" s="272" t="inlineStr">
         <is>
-          <t>PMY</t>
+          <t>AER</t>
         </is>
       </c>
       <c r="F10" s="272" t="inlineStr">
         <is>
-          <t>OTRO MANDATO JUDICIAL</t>
+          <t>DENUNCIA POLICIAL</t>
         </is>
       </c>
       <c r="G10" s="272" t="inlineStr">
         <is>
-          <t>ORDEN JUDICIAL</t>
+          <t>ORDEN POLICIAL</t>
         </is>
       </c>
       <c r="H10" s="272" t="inlineStr">
         <is>
-          <t>CHUBUT</t>
+          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
         </is>
       </c>
       <c r="I10" s="307" t="inlineStr">
         <is>
-          <t>BIEDMA</t>
+          <t>COMUNA 14</t>
         </is>
       </c>
       <c r="J10" s="272" t="inlineStr">
@@ -14390,19 +14390,19 @@
         </is>
       </c>
       <c r="N10" s="278" t="n">
-        <v>-42.754988</v>
+        <v>-34.5580305</v>
       </c>
       <c r="O10" s="282" t="n">
-        <v>-65.10066500000001</v>
+        <v>-58.4191975</v>
       </c>
       <c r="P10" s="284" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>19/10/2024</t>
         </is>
       </c>
       <c r="Q10" s="286" t="inlineStr">
         <is>
-          <t>23:10</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="R10" s="274" t="inlineStr">
@@ -14429,17 +14429,17 @@
       </c>
       <c r="C11" s="277" t="inlineStr">
         <is>
-          <t>FCR  8591/2024</t>
+          <t>42933 "M" 2021</t>
         </is>
       </c>
       <c r="D11" s="269" t="inlineStr">
         <is>
-          <t>FCR  8591/2024-(1)</t>
+          <t>42933 "M" 2021-(1)</t>
         </is>
       </c>
       <c r="E11" s="269" t="inlineStr">
         <is>
-          <t>CAL</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="F11" s="269" t="inlineStr">
@@ -14454,12 +14454,12 @@
       </c>
       <c r="H11" s="272" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CORDOBA</t>
         </is>
       </c>
       <c r="I11" s="307" t="inlineStr">
         <is>
-          <t>LAGO ARGENTINO</t>
+          <t>CAPITAL</t>
         </is>
       </c>
       <c r="J11" s="272" t="inlineStr">
@@ -14483,19 +14483,19 @@
         </is>
       </c>
       <c r="N11" s="279" t="n">
-        <v>-50.283977</v>
+        <v>-31.315538</v>
       </c>
       <c r="O11" s="279" t="n">
-        <v>-72.053724</v>
+        <v>-64.213374</v>
       </c>
       <c r="P11" s="284" t="inlineStr">
         <is>
-          <t>11/10/2024</t>
+          <t>20/10/2024</t>
         </is>
       </c>
       <c r="Q11" s="287" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="R11" s="274" t="inlineStr">
@@ -14522,37 +14522,37 @@
       </c>
       <c r="C12" s="277" t="inlineStr">
         <is>
-          <t>PS-0575-AER/24</t>
+          <t>27091/2022</t>
         </is>
       </c>
       <c r="D12" s="272" t="inlineStr">
         <is>
-          <t>PS-0575-AER/24-(2)</t>
+          <t>27091/2022-(1)</t>
         </is>
       </c>
       <c r="E12" s="272" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="F12" s="269" t="inlineStr">
         <is>
-          <t>DENUNCIA POLICIAL</t>
+          <t>ORDEN DE ALLANAMIENTO</t>
         </is>
       </c>
       <c r="G12" s="269" t="inlineStr">
         <is>
-          <t>ORDEN POLICIAL</t>
+          <t>ORDEN JUDICIAL</t>
         </is>
       </c>
       <c r="H12" s="272" t="inlineStr">
         <is>
-          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="I12" s="307" t="inlineStr">
         <is>
-          <t>COMUNA 14</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="J12" s="272" t="inlineStr">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="K12" s="276" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>VILLEGAS 149, EL PALOMAR - MORON</t>
         </is>
       </c>
       <c r="L12" s="265" t="inlineStr">
@@ -14576,19 +14576,19 @@
         </is>
       </c>
       <c r="N12" s="264" t="n">
-        <v>-34.5580305</v>
+        <v>-34.623564</v>
       </c>
       <c r="O12" s="262" t="n">
-        <v>-58.4191975</v>
+        <v>-58.577936</v>
       </c>
       <c r="P12" s="263" t="inlineStr">
         <is>
-          <t>13/10/2024</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="Q12" s="285" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="R12" s="274" t="inlineStr">
@@ -14615,22 +14615,22 @@
       </c>
       <c r="C13" s="277" t="inlineStr">
         <is>
-          <t>FGR5144/2024</t>
+          <t>27091/2022</t>
         </is>
       </c>
       <c r="D13" s="271" t="inlineStr">
         <is>
-          <t>FGR5144/2024-(1)</t>
+          <t>27091/2022-(2)</t>
         </is>
       </c>
       <c r="E13" s="272" t="inlineStr">
         <is>
-          <t>UC5</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="F13" s="272" t="inlineStr">
         <is>
-          <t>OTRO MANDATO JUDICIAL</t>
+          <t>ORDEN DE ALLANAMIENTO</t>
         </is>
       </c>
       <c r="G13" s="272" t="inlineStr">
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H13" s="272" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="I13" s="307" t="inlineStr">
         <is>
-          <t>UC5</t>
+          <t>UCC</t>
         </is>
       </c>
       <c r="J13" s="269" t="inlineStr">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="K13" s="271" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BELGRANO 6564, JOSE LEON SUAREZ - SAN MARTIN</t>
         </is>
       </c>
       <c r="L13" s="265" t="inlineStr">
@@ -14669,19 +14669,19 @@
         </is>
       </c>
       <c r="N13" s="281" t="n">
-        <v>-41.146694</v>
+        <v>-34.541669</v>
       </c>
       <c r="O13" s="283" t="n">
-        <v>-71.16198199999999</v>
+        <v>-58.574293</v>
       </c>
       <c r="P13" s="263" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>22/10/2024</t>
         </is>
       </c>
       <c r="Q13" s="286" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="R13" s="274" t="inlineStr">
@@ -14701,746 +14701,178 @@
       <c r="Z13" s="305" t="n"/>
     </row>
     <row r="14" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B14" s="270" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C14" s="277" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 21300/17-V</t>
-        </is>
-      </c>
-      <c r="D14" s="271" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 21300/17-V-(1)</t>
-        </is>
-      </c>
-      <c r="E14" s="272" t="inlineStr">
-        <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="F14" s="272" t="inlineStr">
-        <is>
-          <t>CONTROL PREVENTIVO - SECTOR DE SEGURIDAD RESTRINGIDA AEROPORTUARIA</t>
-        </is>
-      </c>
-      <c r="G14" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H14" s="272" t="inlineStr">
-        <is>
-          <t>CHUBUT</t>
-        </is>
-      </c>
-      <c r="I14" s="307" t="inlineStr">
-        <is>
-          <t>ESCALANTE</t>
-        </is>
-      </c>
-      <c r="J14" s="269" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" s="271" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N14" s="281" t="n">
-        <v>-45.789465</v>
-      </c>
-      <c r="O14" s="283" t="n">
-        <v>-67.467674</v>
-      </c>
-      <c r="P14" s="263" t="inlineStr">
-        <is>
-          <t>16/10/2024</t>
-        </is>
-      </c>
-      <c r="Q14" s="286" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="R14" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S14" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
+      <c r="B14" s="270" t="n"/>
+      <c r="C14" s="277" t="n"/>
+      <c r="D14" s="271" t="n"/>
+      <c r="E14" s="272" t="n"/>
+      <c r="F14" s="272" t="n"/>
+      <c r="G14" s="272" t="n"/>
+      <c r="H14" s="272" t="n"/>
+      <c r="I14" s="307" t="n"/>
+      <c r="J14" s="269" t="n"/>
+      <c r="K14" s="271" t="n"/>
+      <c r="L14" s="265" t="n"/>
+      <c r="M14" s="265" t="n"/>
+      <c r="N14" s="281" t="n"/>
+      <c r="O14" s="283" t="n"/>
+      <c r="P14" s="263" t="n"/>
+      <c r="Q14" s="286" t="n"/>
+      <c r="R14" s="274" t="n"/>
+      <c r="S14" s="275" t="n"/>
       <c r="Y14" s="305" t="n"/>
       <c r="Z14" s="305" t="n"/>
     </row>
     <row r="15" ht="16.5" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B15" s="270" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C15" s="277" t="inlineStr">
-        <is>
-          <t>FCB 14653/24 COIRON 222549/24</t>
-        </is>
-      </c>
-      <c r="D15" s="271" t="inlineStr">
-        <is>
-          <t>FCB 14653/24 COIRON 222549/24-(1)</t>
-        </is>
-      </c>
-      <c r="E15" s="272" t="inlineStr">
-        <is>
-          <t>UC2</t>
-        </is>
-      </c>
-      <c r="F15" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G15" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H15" s="272" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="I15" s="307" t="inlineStr">
-        <is>
-          <t>UC2</t>
-        </is>
-      </c>
-      <c r="J15" s="269" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" s="271" t="inlineStr">
-        <is>
-          <t>EDUARDO MARQUINA S/D, CORDOBA - nan</t>
-        </is>
-      </c>
-      <c r="L15" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M15" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" s="281" t="n">
-        <v>-31.381514</v>
-      </c>
-      <c r="O15" s="283" t="n">
-        <v>-64.192876</v>
-      </c>
-      <c r="P15" s="263" t="inlineStr">
-        <is>
-          <t>14/10/2024</t>
-        </is>
-      </c>
-      <c r="Q15" s="286" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="R15" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S15" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
+      <c r="B15" s="270" t="n"/>
+      <c r="C15" s="277" t="n"/>
+      <c r="D15" s="271" t="n"/>
+      <c r="E15" s="272" t="n"/>
+      <c r="F15" s="272" t="n"/>
+      <c r="G15" s="272" t="n"/>
+      <c r="H15" s="272" t="n"/>
+      <c r="I15" s="307" t="n"/>
+      <c r="J15" s="269" t="n"/>
+      <c r="K15" s="271" t="n"/>
+      <c r="L15" s="265" t="n"/>
+      <c r="M15" s="265" t="n"/>
+      <c r="N15" s="281" t="n"/>
+      <c r="O15" s="283" t="n"/>
+      <c r="P15" s="263" t="n"/>
+      <c r="Q15" s="286" t="n"/>
+      <c r="R15" s="274" t="n"/>
+      <c r="S15" s="275" t="n"/>
       <c r="Y15" s="305" t="n"/>
       <c r="Z15" s="305" t="n"/>
     </row>
     <row r="16" ht="19.5" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B16" s="270" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C16" s="277" t="inlineStr">
-        <is>
-          <t>CARPETA-N 9700</t>
-        </is>
-      </c>
-      <c r="D16" s="271" t="inlineStr">
-        <is>
-          <t>CARPETA-N 9700-(1)</t>
-        </is>
-      </c>
-      <c r="E16" s="272" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="F16" s="272" t="inlineStr">
-        <is>
-          <t>CONTROL PREVENTIVO - DESPLIEGUE</t>
-        </is>
-      </c>
-      <c r="G16" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H16" s="272" t="inlineStr">
-        <is>
-          <t>CHUBUT</t>
-        </is>
-      </c>
-      <c r="I16" s="307" t="inlineStr">
-        <is>
-          <t>RAWSON</t>
-        </is>
-      </c>
-      <c r="J16" s="269" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" s="271" t="inlineStr">
-        <is>
-          <t>nan nan, TRELEW - nan</t>
-        </is>
-      </c>
-      <c r="L16" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" s="281" t="n">
-        <v>-43.24824</v>
-      </c>
-      <c r="O16" s="283" t="n">
-        <v>-65.30496100000001</v>
-      </c>
-      <c r="P16" s="263" t="inlineStr">
-        <is>
-          <t>18/10/2024</t>
-        </is>
-      </c>
-      <c r="Q16" s="286" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="R16" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S16" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
+      <c r="B16" s="270" t="n"/>
+      <c r="C16" s="277" t="n"/>
+      <c r="D16" s="271" t="n"/>
+      <c r="E16" s="272" t="n"/>
+      <c r="F16" s="272" t="n"/>
+      <c r="G16" s="272" t="n"/>
+      <c r="H16" s="272" t="n"/>
+      <c r="I16" s="307" t="n"/>
+      <c r="J16" s="269" t="n"/>
+      <c r="K16" s="271" t="n"/>
+      <c r="L16" s="265" t="n"/>
+      <c r="M16" s="265" t="n"/>
+      <c r="N16" s="281" t="n"/>
+      <c r="O16" s="283" t="n"/>
+      <c r="P16" s="263" t="n"/>
+      <c r="Q16" s="286" t="n"/>
+      <c r="R16" s="274" t="n"/>
+      <c r="S16" s="275" t="n"/>
       <c r="Y16" s="305" t="n"/>
       <c r="Z16" s="305" t="n"/>
     </row>
     <row r="17" ht="18" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B17" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C17" s="277" t="inlineStr">
-        <is>
-          <t>179/2023 (8178)</t>
-        </is>
-      </c>
-      <c r="D17" s="272" t="inlineStr">
-        <is>
-          <t>179/2023 (8178)-(1)</t>
-        </is>
-      </c>
-      <c r="E17" s="272" t="inlineStr">
-        <is>
-          <t>AER</t>
-        </is>
-      </c>
-      <c r="F17" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G17" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H17" s="272" t="inlineStr">
-        <is>
-          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I17" s="307" t="inlineStr">
-        <is>
-          <t>COMUNA 14</t>
-        </is>
-      </c>
-      <c r="J17" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M17" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" s="280" t="n">
-        <v>-34.5580305</v>
-      </c>
-      <c r="O17" s="282" t="n">
-        <v>-58.4191975</v>
-      </c>
-      <c r="P17" s="263" t="inlineStr">
-        <is>
-          <t>19/10/2024</t>
-        </is>
-      </c>
-      <c r="Q17" s="286" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="R17" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S17" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v/>
-      </c>
+      <c r="B17" s="277" t="n"/>
+      <c r="C17" s="277" t="n"/>
+      <c r="D17" s="272" t="n"/>
+      <c r="E17" s="272" t="n"/>
+      <c r="F17" s="272" t="n"/>
+      <c r="G17" s="272" t="n"/>
+      <c r="H17" s="272" t="n"/>
+      <c r="I17" s="307" t="n"/>
+      <c r="J17" s="272" t="n"/>
+      <c r="K17" s="272" t="n"/>
+      <c r="L17" s="265" t="n"/>
+      <c r="M17" s="265" t="n"/>
+      <c r="N17" s="280" t="n"/>
+      <c r="O17" s="282" t="n"/>
+      <c r="P17" s="263" t="n"/>
+      <c r="Q17" s="286" t="n"/>
+      <c r="R17" s="274" t="n"/>
+      <c r="S17" s="275" t="n"/>
       <c r="Y17" s="305" t="n"/>
       <c r="Z17" s="305" t="n"/>
     </row>
     <row r="18" ht="19.5" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B18" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C18" s="277" t="inlineStr">
-        <is>
-          <t>42933 "M" 2021</t>
-        </is>
-      </c>
-      <c r="D18" s="272" t="inlineStr">
-        <is>
-          <t>42933 "M" 2021-(1)</t>
-        </is>
-      </c>
-      <c r="E18" s="272" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="F18" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G18" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H18" s="272" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="I18" s="307" t="inlineStr">
-        <is>
-          <t>CAPITAL</t>
-        </is>
-      </c>
-      <c r="J18" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L18" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M18" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N18" s="280" t="n">
-        <v>-31.315538</v>
-      </c>
-      <c r="O18" s="282" t="n">
-        <v>-64.213374</v>
-      </c>
-      <c r="P18" s="263" t="inlineStr">
-        <is>
-          <t>20/10/2024</t>
-        </is>
-      </c>
-      <c r="Q18" s="286" t="inlineStr">
-        <is>
-          <t>03:30</t>
-        </is>
-      </c>
-      <c r="R18" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S18" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v/>
-      </c>
+      <c r="B18" s="277" t="n"/>
+      <c r="C18" s="277" t="n"/>
+      <c r="D18" s="272" t="n"/>
+      <c r="E18" s="272" t="n"/>
+      <c r="F18" s="272" t="n"/>
+      <c r="G18" s="272" t="n"/>
+      <c r="H18" s="272" t="n"/>
+      <c r="I18" s="307" t="n"/>
+      <c r="J18" s="272" t="n"/>
+      <c r="K18" s="272" t="n"/>
+      <c r="L18" s="265" t="n"/>
+      <c r="M18" s="265" t="n"/>
+      <c r="N18" s="280" t="n"/>
+      <c r="O18" s="282" t="n"/>
+      <c r="P18" s="263" t="n"/>
+      <c r="Q18" s="286" t="n"/>
+      <c r="R18" s="274" t="n"/>
+      <c r="S18" s="275" t="n"/>
       <c r="Y18" s="305" t="n"/>
       <c r="Z18" s="305" t="n"/>
     </row>
     <row r="19" ht="21" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B19" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C19" s="277" t="inlineStr">
-        <is>
-          <t>LEG CONTRAVENCIONAL 1762</t>
-        </is>
-      </c>
-      <c r="D19" s="272" t="inlineStr">
-        <is>
-          <t>LEG CONTRAVENCIONAL 1762-(1)</t>
-        </is>
-      </c>
-      <c r="E19" s="272" t="inlineStr">
-        <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="F19" s="272" t="inlineStr">
-        <is>
-          <t>CONTROL PREVENTIVO - SECTOR DE SEGURIDAD RESTRINGIDA AEROPORTUARIA</t>
-        </is>
-      </c>
-      <c r="G19" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H19" s="272" t="inlineStr">
-        <is>
-          <t>CHUBUT</t>
-        </is>
-      </c>
-      <c r="I19" s="307" t="inlineStr">
-        <is>
-          <t>ESCALANTE</t>
-        </is>
-      </c>
-      <c r="J19" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K19" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L19" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M19" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N19" s="280" t="n">
-        <v>-45.789465</v>
-      </c>
-      <c r="O19" s="282" t="n">
-        <v>-67.467674</v>
-      </c>
-      <c r="P19" s="263" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="Q19" s="286" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="R19" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S19" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v/>
-      </c>
+      <c r="B19" s="277" t="n"/>
+      <c r="C19" s="277" t="n"/>
+      <c r="D19" s="272" t="n"/>
+      <c r="E19" s="272" t="n"/>
+      <c r="F19" s="272" t="n"/>
+      <c r="G19" s="272" t="n"/>
+      <c r="H19" s="272" t="n"/>
+      <c r="I19" s="307" t="n"/>
+      <c r="J19" s="272" t="n"/>
+      <c r="K19" s="272" t="n"/>
+      <c r="L19" s="265" t="n"/>
+      <c r="M19" s="265" t="n"/>
+      <c r="N19" s="280" t="n"/>
+      <c r="O19" s="282" t="n"/>
+      <c r="P19" s="263" t="n"/>
+      <c r="Q19" s="286" t="n"/>
+      <c r="R19" s="274" t="n"/>
+      <c r="S19" s="275" t="n"/>
       <c r="Y19" s="305" t="n"/>
       <c r="Z19" s="305" t="n"/>
     </row>
     <row r="20" ht="20.25" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B20" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C20" s="277" t="inlineStr">
-        <is>
-          <t>27091/2022</t>
-        </is>
-      </c>
-      <c r="D20" s="272" t="inlineStr">
-        <is>
-          <t>27091/2022-(1)</t>
-        </is>
-      </c>
-      <c r="E20" s="272" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="F20" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G20" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H20" s="272" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I20" s="307" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="J20" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K20" s="272" t="inlineStr">
-        <is>
-          <t>VILLEGAS 149, EL PALOMAR - MORON</t>
-        </is>
-      </c>
-      <c r="L20" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M20" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N20" s="278" t="n">
-        <v>-34.623564</v>
-      </c>
-      <c r="O20" s="282" t="n">
-        <v>-58.577936</v>
-      </c>
-      <c r="P20" s="263" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="Q20" s="286" t="inlineStr">
-        <is>
-          <t>07:57</t>
-        </is>
-      </c>
-      <c r="R20" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S20" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v/>
-      </c>
+      <c r="B20" s="277" t="n"/>
+      <c r="C20" s="277" t="n"/>
+      <c r="D20" s="272" t="n"/>
+      <c r="E20" s="272" t="n"/>
+      <c r="F20" s="272" t="n"/>
+      <c r="G20" s="272" t="n"/>
+      <c r="H20" s="272" t="n"/>
+      <c r="I20" s="307" t="n"/>
+      <c r="J20" s="272" t="n"/>
+      <c r="K20" s="272" t="n"/>
+      <c r="L20" s="265" t="n"/>
+      <c r="M20" s="265" t="n"/>
+      <c r="N20" s="278" t="n"/>
+      <c r="O20" s="282" t="n"/>
+      <c r="P20" s="263" t="n"/>
+      <c r="Q20" s="286" t="n"/>
+      <c r="R20" s="274" t="n"/>
+      <c r="S20" s="275" t="n"/>
       <c r="Y20" s="305" t="n"/>
       <c r="Z20" s="305" t="n"/>
     </row>
     <row r="21" ht="20.25" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B21" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C21" s="277" t="inlineStr">
-        <is>
-          <t>27091/2022</t>
-        </is>
-      </c>
-      <c r="D21" s="269" t="inlineStr">
-        <is>
-          <t>27091/2022-(2)</t>
-        </is>
-      </c>
-      <c r="E21" s="269" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="F21" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G21" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H21" s="272" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I21" s="307" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="J21" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" s="272" t="inlineStr">
-        <is>
-          <t>BELGRANO 6564, JOSE LEON SUAREZ - SAN MARTIN</t>
-        </is>
-      </c>
-      <c r="L21" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M21" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N21" s="279" t="n">
-        <v>-34.541669</v>
-      </c>
-      <c r="O21" s="279" t="n">
-        <v>-58.574293</v>
-      </c>
-      <c r="P21" s="263" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="Q21" s="287" t="inlineStr">
-        <is>
-          <t>07:40</t>
-        </is>
-      </c>
-      <c r="R21" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S21" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v/>
-      </c>
+      <c r="B21" s="277" t="n"/>
+      <c r="C21" s="277" t="n"/>
+      <c r="D21" s="269" t="n"/>
+      <c r="E21" s="269" t="n"/>
+      <c r="F21" s="269" t="n"/>
+      <c r="G21" s="269" t="n"/>
+      <c r="H21" s="272" t="n"/>
+      <c r="I21" s="307" t="n"/>
+      <c r="J21" s="272" t="n"/>
+      <c r="K21" s="272" t="n"/>
+      <c r="L21" s="265" t="n"/>
+      <c r="M21" s="265" t="n"/>
+      <c r="N21" s="279" t="n"/>
+      <c r="O21" s="279" t="n"/>
+      <c r="P21" s="263" t="n"/>
+      <c r="Q21" s="287" t="n"/>
+      <c r="R21" s="274" t="n"/>
+      <c r="S21" s="275" t="n"/>
       <c r="Y21" s="305" t="n"/>
       <c r="Z21" s="305" t="n"/>
     </row>

--- a/Planilla_informe.xlsx
+++ b/Planilla_informe.xlsx
@@ -13616,7 +13616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13771,932 +13771,222 @@
       </c>
     </row>
     <row r="4" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B4" s="259" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C4" s="259" t="inlineStr">
-        <is>
-          <t>FCB-14275/2024</t>
-        </is>
-      </c>
-      <c r="D4" s="260" t="inlineStr">
-        <is>
-          <t>FCB-14275/2024-(1)</t>
-        </is>
-      </c>
-      <c r="E4" s="260" t="inlineStr">
-        <is>
-          <t>UC2</t>
-        </is>
-      </c>
-      <c r="F4" s="260" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G4" s="260" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H4" s="270" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="I4" s="304" t="inlineStr">
-        <is>
-          <t>UC2</t>
-        </is>
-      </c>
-      <c r="J4" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" s="272" t="inlineStr">
-        <is>
-          <t>ALVEAR 158, CORDOBA - nan</t>
-        </is>
-      </c>
-      <c r="L4" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M4" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" s="266" t="n">
-        <v>-31.415165</v>
-      </c>
-      <c r="O4" s="267" t="n">
-        <v>-64.18058600000001</v>
-      </c>
-      <c r="P4" s="288" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q4" s="268" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
-      <c r="R4" s="226" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S4" s="227" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
+      <c r="B4" s="259" t="n"/>
+      <c r="C4" s="259" t="n"/>
+      <c r="D4" s="260" t="n"/>
+      <c r="E4" s="260" t="n"/>
+      <c r="F4" s="260" t="n"/>
+      <c r="G4" s="260" t="n"/>
+      <c r="H4" s="270" t="n"/>
+      <c r="I4" s="304" t="n"/>
+      <c r="J4" s="272" t="n"/>
+      <c r="K4" s="272" t="n"/>
+      <c r="L4" s="265" t="n"/>
+      <c r="M4" s="265" t="n"/>
+      <c r="N4" s="266" t="n"/>
+      <c r="O4" s="267" t="n"/>
+      <c r="P4" s="288" t="n"/>
+      <c r="Q4" s="268" t="n"/>
+      <c r="R4" s="226" t="n"/>
+      <c r="S4" s="227" t="n"/>
       <c r="Y4" s="305" t="n"/>
       <c r="Z4" s="305" t="n"/>
     </row>
     <row r="5" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B5" s="259" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C5" s="259" t="inlineStr">
-        <is>
-          <t>FCB-14275/2024</t>
-        </is>
-      </c>
-      <c r="D5" s="260" t="inlineStr">
-        <is>
-          <t>FCB-14275/2024-(2)</t>
-        </is>
-      </c>
-      <c r="E5" s="260" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="F5" s="260" t="inlineStr">
-        <is>
-          <t>OTRO MANDATO JUDICIAL</t>
-        </is>
-      </c>
-      <c r="G5" s="260" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H5" s="289" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="I5" s="306" t="inlineStr">
-        <is>
-          <t>CAPITAL</t>
-        </is>
-      </c>
-      <c r="J5" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K5" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L5" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M5" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N5" s="266" t="n">
-        <v>-31.314897</v>
-      </c>
-      <c r="O5" s="267" t="n">
-        <v>-64.213159</v>
-      </c>
-      <c r="P5" s="288" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q5" s="268" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="R5" s="226" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" s="227" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
+      <c r="B5" s="259" t="n"/>
+      <c r="C5" s="259" t="n"/>
+      <c r="D5" s="260" t="n"/>
+      <c r="E5" s="260" t="n"/>
+      <c r="F5" s="260" t="n"/>
+      <c r="G5" s="260" t="n"/>
+      <c r="H5" s="289" t="n"/>
+      <c r="I5" s="306" t="n"/>
+      <c r="J5" s="272" t="n"/>
+      <c r="K5" s="272" t="n"/>
+      <c r="L5" s="265" t="n"/>
+      <c r="M5" s="265" t="n"/>
+      <c r="N5" s="266" t="n"/>
+      <c r="O5" s="267" t="n"/>
+      <c r="P5" s="288" t="n"/>
+      <c r="Q5" s="268" t="n"/>
+      <c r="R5" s="226" t="n"/>
+      <c r="S5" s="227" t="n"/>
       <c r="Y5" s="305" t="n"/>
       <c r="Z5" s="305" t="n"/>
     </row>
     <row r="6" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B6" s="270" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C6" s="277" t="inlineStr">
-        <is>
-          <t>PS-0565-AER/24</t>
-        </is>
-      </c>
-      <c r="D6" s="271" t="inlineStr">
-        <is>
-          <t>PS-0565-AER/24-(2)</t>
-        </is>
-      </c>
-      <c r="E6" s="272" t="inlineStr">
-        <is>
-          <t>AER</t>
-        </is>
-      </c>
-      <c r="F6" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G6" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H6" s="272" t="inlineStr">
-        <is>
-          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I6" s="307" t="inlineStr">
-        <is>
-          <t>COMUNA 14</t>
-        </is>
-      </c>
-      <c r="J6" s="269" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" s="271" t="inlineStr">
-        <is>
-          <t>nan nan, nan - nan</t>
-        </is>
-      </c>
-      <c r="L6" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" s="281" t="n">
-        <v>-34.55602</v>
-      </c>
-      <c r="O6" s="283" t="n">
-        <v>-58.41298</v>
-      </c>
-      <c r="P6" s="284" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="Q6" s="286" t="inlineStr">
-        <is>
-          <t>22:20</t>
-        </is>
-      </c>
-      <c r="R6" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S6" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
+      <c r="B6" s="270" t="n"/>
+      <c r="C6" s="277" t="n"/>
+      <c r="D6" s="271" t="n"/>
+      <c r="E6" s="272" t="n"/>
+      <c r="F6" s="272" t="n"/>
+      <c r="G6" s="272" t="n"/>
+      <c r="H6" s="272" t="n"/>
+      <c r="I6" s="307" t="n"/>
+      <c r="J6" s="269" t="n"/>
+      <c r="K6" s="271" t="n"/>
+      <c r="L6" s="265" t="n"/>
+      <c r="M6" s="265" t="n"/>
+      <c r="N6" s="281" t="n"/>
+      <c r="O6" s="283" t="n"/>
+      <c r="P6" s="284" t="n"/>
+      <c r="Q6" s="286" t="n"/>
+      <c r="R6" s="274" t="n"/>
+      <c r="S6" s="275" t="n"/>
       <c r="Y6" s="305" t="n"/>
       <c r="Z6" s="305" t="n"/>
     </row>
     <row r="7" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B7" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C7" s="277" t="inlineStr">
-        <is>
-          <t>PS-0575-AER/24</t>
-        </is>
-      </c>
-      <c r="D7" s="272" t="inlineStr">
-        <is>
-          <t>PS-0575-AER/24-(2)</t>
-        </is>
-      </c>
-      <c r="E7" s="272" t="inlineStr">
-        <is>
-          <t>AER</t>
-        </is>
-      </c>
-      <c r="F7" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G7" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H7" s="272" t="inlineStr">
-        <is>
-          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I7" s="307" t="inlineStr">
-        <is>
-          <t>COMUNA 14</t>
-        </is>
-      </c>
-      <c r="J7" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="280" t="n">
-        <v>-34.5580305</v>
-      </c>
-      <c r="O7" s="282" t="n">
-        <v>-58.4191975</v>
-      </c>
-      <c r="P7" s="284" t="inlineStr">
-        <is>
-          <t>13/10/2024</t>
-        </is>
-      </c>
-      <c r="Q7" s="286" t="inlineStr">
-        <is>
-          <t>05:30</t>
-        </is>
-      </c>
-      <c r="R7" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S7" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
+      <c r="B7" s="277" t="n"/>
+      <c r="C7" s="277" t="n"/>
+      <c r="D7" s="272" t="n"/>
+      <c r="E7" s="272" t="n"/>
+      <c r="F7" s="272" t="n"/>
+      <c r="G7" s="272" t="n"/>
+      <c r="H7" s="272" t="n"/>
+      <c r="I7" s="307" t="n"/>
+      <c r="J7" s="272" t="n"/>
+      <c r="K7" s="272" t="n"/>
+      <c r="L7" s="265" t="n"/>
+      <c r="M7" s="265" t="n"/>
+      <c r="N7" s="280" t="n"/>
+      <c r="O7" s="282" t="n"/>
+      <c r="P7" s="284" t="n"/>
+      <c r="Q7" s="286" t="n"/>
+      <c r="R7" s="274" t="n"/>
+      <c r="S7" s="275" t="n"/>
       <c r="Y7" s="305" t="n"/>
       <c r="Z7" s="305" t="n"/>
     </row>
     <row r="8" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B8" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C8" s="277" t="inlineStr">
-        <is>
-          <t>ACTUACIONES JUDICIALES-0000-UC1/24</t>
-        </is>
-      </c>
-      <c r="D8" s="272" t="inlineStr">
-        <is>
-          <t>ACTUACIONES JUDICIALES-0000-UC1/24-(1)</t>
-        </is>
-      </c>
-      <c r="E8" s="272" t="inlineStr">
-        <is>
-          <t>UC1</t>
-        </is>
-      </c>
-      <c r="F8" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G8" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H8" s="272" t="inlineStr">
-        <is>
-          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I8" s="307" t="inlineStr">
-        <is>
-          <t>UC1</t>
-        </is>
-      </c>
-      <c r="J8" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="272" t="inlineStr">
-        <is>
-          <t>GENERAL CESAR DIAZ 4342, nan - nan</t>
-        </is>
-      </c>
-      <c r="L8" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" s="280" t="n">
-        <v>-34.6242611</v>
-      </c>
-      <c r="O8" s="282" t="n">
-        <v>-58.4932984</v>
-      </c>
-      <c r="P8" s="284" t="inlineStr">
-        <is>
-          <t>18/10/2024</t>
-        </is>
-      </c>
-      <c r="Q8" s="286" t="inlineStr">
-        <is>
-          <t>07:36</t>
-        </is>
-      </c>
-      <c r="R8" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S8" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
+      <c r="B8" s="277" t="n"/>
+      <c r="C8" s="277" t="n"/>
+      <c r="D8" s="272" t="n"/>
+      <c r="E8" s="272" t="n"/>
+      <c r="F8" s="272" t="n"/>
+      <c r="G8" s="272" t="n"/>
+      <c r="H8" s="272" t="n"/>
+      <c r="I8" s="307" t="n"/>
+      <c r="J8" s="272" t="n"/>
+      <c r="K8" s="272" t="n"/>
+      <c r="L8" s="265" t="n"/>
+      <c r="M8" s="265" t="n"/>
+      <c r="N8" s="280" t="n"/>
+      <c r="O8" s="282" t="n"/>
+      <c r="P8" s="284" t="n"/>
+      <c r="Q8" s="286" t="n"/>
+      <c r="R8" s="274" t="n"/>
+      <c r="S8" s="275" t="n"/>
       <c r="Y8" s="305" t="n"/>
       <c r="Z8" s="305" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1" s="261" thickBot="1">
-      <c r="B9" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C9" s="277" t="inlineStr">
-        <is>
-          <t>FCB-14653/24 COIRON-222549/24</t>
-        </is>
-      </c>
-      <c r="D9" s="272" t="inlineStr">
-        <is>
-          <t>FCB-14653/24 COIRON-222549/24-(1)</t>
-        </is>
-      </c>
-      <c r="E9" s="272" t="inlineStr">
-        <is>
-          <t>UC2</t>
-        </is>
-      </c>
-      <c r="F9" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G9" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H9" s="272" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="I9" s="307" t="inlineStr">
-        <is>
-          <t>UC2</t>
-        </is>
-      </c>
-      <c r="J9" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K9" s="272" t="inlineStr">
-        <is>
-          <t>EDUARDO MARQUINA S/D, CORDOBA - nan</t>
-        </is>
-      </c>
-      <c r="L9" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" s="280" t="n">
-        <v>-31.381514</v>
-      </c>
-      <c r="O9" s="282" t="n">
-        <v>-64.192876</v>
-      </c>
-      <c r="P9" s="284" t="inlineStr">
-        <is>
-          <t>14/10/2024</t>
-        </is>
-      </c>
-      <c r="Q9" s="286" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="R9" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
+      <c r="B9" s="277" t="n"/>
+      <c r="C9" s="277" t="n"/>
+      <c r="D9" s="272" t="n"/>
+      <c r="E9" s="272" t="n"/>
+      <c r="F9" s="272" t="n"/>
+      <c r="G9" s="272" t="n"/>
+      <c r="H9" s="272" t="n"/>
+      <c r="I9" s="307" t="n"/>
+      <c r="J9" s="272" t="n"/>
+      <c r="K9" s="272" t="n"/>
+      <c r="L9" s="265" t="n"/>
+      <c r="M9" s="265" t="n"/>
+      <c r="N9" s="280" t="n"/>
+      <c r="O9" s="282" t="n"/>
+      <c r="P9" s="284" t="n"/>
+      <c r="Q9" s="286" t="n"/>
+      <c r="R9" s="274" t="n"/>
+      <c r="S9" s="275" t="n"/>
       <c r="Y9" s="305" t="n"/>
       <c r="Z9" s="305" t="n"/>
     </row>
     <row r="10" ht="18.75" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B10" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C10" s="277" t="inlineStr">
-        <is>
-          <t>179/2023 (8178)</t>
-        </is>
-      </c>
-      <c r="D10" s="272" t="inlineStr">
-        <is>
-          <t>179/2023 (8178)-(1)</t>
-        </is>
-      </c>
-      <c r="E10" s="272" t="inlineStr">
-        <is>
-          <t>AER</t>
-        </is>
-      </c>
-      <c r="F10" s="272" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G10" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H10" s="272" t="inlineStr">
-        <is>
-          <t>CIUDAD AUTONOMA DE BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I10" s="307" t="inlineStr">
-        <is>
-          <t>COMUNA 14</t>
-        </is>
-      </c>
-      <c r="J10" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" s="278" t="n">
-        <v>-34.5580305</v>
-      </c>
-      <c r="O10" s="282" t="n">
-        <v>-58.4191975</v>
-      </c>
-      <c r="P10" s="284" t="inlineStr">
-        <is>
-          <t>19/10/2024</t>
-        </is>
-      </c>
-      <c r="Q10" s="286" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="R10" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S10" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
+      <c r="B10" s="277" t="n"/>
+      <c r="C10" s="277" t="n"/>
+      <c r="D10" s="272" t="n"/>
+      <c r="E10" s="272" t="n"/>
+      <c r="F10" s="272" t="n"/>
+      <c r="G10" s="272" t="n"/>
+      <c r="H10" s="272" t="n"/>
+      <c r="I10" s="307" t="n"/>
+      <c r="J10" s="272" t="n"/>
+      <c r="K10" s="272" t="n"/>
+      <c r="L10" s="265" t="n"/>
+      <c r="M10" s="265" t="n"/>
+      <c r="N10" s="278" t="n"/>
+      <c r="O10" s="282" t="n"/>
+      <c r="P10" s="284" t="n"/>
+      <c r="Q10" s="286" t="n"/>
+      <c r="R10" s="274" t="n"/>
+      <c r="S10" s="275" t="n"/>
       <c r="Y10" s="305" t="n"/>
       <c r="Z10" s="305" t="n"/>
     </row>
     <row r="11" ht="18" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B11" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C11" s="277" t="inlineStr">
-        <is>
-          <t>42933 "M" 2021</t>
-        </is>
-      </c>
-      <c r="D11" s="269" t="inlineStr">
-        <is>
-          <t>42933 "M" 2021-(1)</t>
-        </is>
-      </c>
-      <c r="E11" s="269" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="F11" s="269" t="inlineStr">
-        <is>
-          <t>DENUNCIA POLICIAL</t>
-        </is>
-      </c>
-      <c r="G11" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN POLICIAL</t>
-        </is>
-      </c>
-      <c r="H11" s="272" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="I11" s="307" t="inlineStr">
-        <is>
-          <t>CAPITAL</t>
-        </is>
-      </c>
-      <c r="J11" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="279" t="n">
-        <v>-31.315538</v>
-      </c>
-      <c r="O11" s="279" t="n">
-        <v>-64.213374</v>
-      </c>
-      <c r="P11" s="284" t="inlineStr">
-        <is>
-          <t>20/10/2024</t>
-        </is>
-      </c>
-      <c r="Q11" s="287" t="inlineStr">
-        <is>
-          <t>03:30</t>
-        </is>
-      </c>
-      <c r="R11" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S11" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
+      <c r="B11" s="277" t="n"/>
+      <c r="C11" s="277" t="n"/>
+      <c r="D11" s="269" t="n"/>
+      <c r="E11" s="269" t="n"/>
+      <c r="F11" s="269" t="n"/>
+      <c r="G11" s="269" t="n"/>
+      <c r="H11" s="272" t="n"/>
+      <c r="I11" s="307" t="n"/>
+      <c r="J11" s="272" t="n"/>
+      <c r="K11" s="272" t="n"/>
+      <c r="L11" s="265" t="n"/>
+      <c r="M11" s="265" t="n"/>
+      <c r="N11" s="279" t="n"/>
+      <c r="O11" s="279" t="n"/>
+      <c r="P11" s="284" t="n"/>
+      <c r="Q11" s="287" t="n"/>
+      <c r="R11" s="274" t="n"/>
+      <c r="S11" s="275" t="n"/>
       <c r="Y11" s="305" t="n"/>
       <c r="Z11" s="305" t="n"/>
     </row>
     <row r="12" ht="22.5" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B12" s="277" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C12" s="277" t="inlineStr">
-        <is>
-          <t>27091/2022</t>
-        </is>
-      </c>
-      <c r="D12" s="272" t="inlineStr">
-        <is>
-          <t>27091/2022-(1)</t>
-        </is>
-      </c>
-      <c r="E12" s="272" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="F12" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G12" s="269" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H12" s="272" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I12" s="307" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="J12" s="272" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="276" t="inlineStr">
-        <is>
-          <t>VILLEGAS 149, EL PALOMAR - MORON</t>
-        </is>
-      </c>
-      <c r="L12" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" s="264" t="n">
-        <v>-34.623564</v>
-      </c>
-      <c r="O12" s="262" t="n">
-        <v>-58.577936</v>
-      </c>
-      <c r="P12" s="263" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="Q12" s="285" t="inlineStr">
-        <is>
-          <t>07:57</t>
-        </is>
-      </c>
-      <c r="R12" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S12" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
+      <c r="B12" s="277" t="n"/>
+      <c r="C12" s="277" t="n"/>
+      <c r="D12" s="272" t="n"/>
+      <c r="E12" s="272" t="n"/>
+      <c r="F12" s="269" t="n"/>
+      <c r="G12" s="269" t="n"/>
+      <c r="H12" s="272" t="n"/>
+      <c r="I12" s="307" t="n"/>
+      <c r="J12" s="272" t="n"/>
+      <c r="K12" s="276" t="n"/>
+      <c r="L12" s="265" t="n"/>
+      <c r="M12" s="265" t="n"/>
+      <c r="N12" s="264" t="n"/>
+      <c r="O12" s="262" t="n"/>
+      <c r="P12" s="263" t="n"/>
+      <c r="Q12" s="285" t="n"/>
+      <c r="R12" s="274" t="n"/>
+      <c r="S12" s="275" t="n"/>
       <c r="Y12" s="305" t="n"/>
       <c r="Z12" s="305" t="n"/>
     </row>
     <row r="13" ht="22.5" customFormat="1" customHeight="1" s="313" thickBot="1">
-      <c r="B13" s="270" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C13" s="277" t="inlineStr">
-        <is>
-          <t>27091/2022</t>
-        </is>
-      </c>
-      <c r="D13" s="271" t="inlineStr">
-        <is>
-          <t>27091/2022-(2)</t>
-        </is>
-      </c>
-      <c r="E13" s="272" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="F13" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN DE ALLANAMIENTO</t>
-        </is>
-      </c>
-      <c r="G13" s="272" t="inlineStr">
-        <is>
-          <t>ORDEN JUDICIAL</t>
-        </is>
-      </c>
-      <c r="H13" s="272" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="I13" s="307" t="inlineStr">
-        <is>
-          <t>UCC</t>
-        </is>
-      </c>
-      <c r="J13" s="269" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" s="271" t="inlineStr">
-        <is>
-          <t>BELGRANO 6564, JOSE LEON SUAREZ - SAN MARTIN</t>
-        </is>
-      </c>
-      <c r="L13" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" s="265" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N13" s="281" t="n">
-        <v>-34.541669</v>
-      </c>
-      <c r="O13" s="283" t="n">
-        <v>-58.574293</v>
-      </c>
-      <c r="P13" s="263" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
-      </c>
-      <c r="Q13" s="286" t="inlineStr">
-        <is>
-          <t>07:40</t>
-        </is>
-      </c>
-      <c r="R13" s="274" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S13" s="275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
+      <c r="B13" s="270" t="n"/>
+      <c r="C13" s="277" t="n"/>
+      <c r="D13" s="271" t="n"/>
+      <c r="E13" s="272" t="n"/>
+      <c r="F13" s="272" t="n"/>
+      <c r="G13" s="272" t="n"/>
+      <c r="H13" s="272" t="n"/>
+      <c r="I13" s="307" t="n"/>
+      <c r="J13" s="269" t="n"/>
+      <c r="K13" s="271" t="n"/>
+      <c r="L13" s="265" t="n"/>
+      <c r="M13" s="265" t="n"/>
+      <c r="N13" s="281" t="n"/>
+      <c r="O13" s="283" t="n"/>
+      <c r="P13" s="263" t="n"/>
+      <c r="Q13" s="286" t="n"/>
+      <c r="R13" s="274" t="n"/>
+      <c r="S13" s="275" t="n"/>
       <c r="Y13" s="305" t="n"/>
       <c r="Z13" s="305" t="n"/>
     </row>
@@ -21435,7 +20725,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24823,7 +24113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -30487,13 +29777,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -35385,13 +34675,13 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -35559,13 +34849,13 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -35711,13 +35001,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -36386,13 +35676,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -36515,7 +35805,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="598"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
